--- a/2-semester/physics/lab2.xlsx
+++ b/2-semester/physics/lab2.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590D8C3D-9601-48BD-AC96-EAF0B73599BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2AD73D-767E-404E-B8C0-2B17A2286FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="№6. Опр. мом. инерц. триф. подв" sheetId="1" r:id="rId1"/>
     <sheet name="№7. Опр. мом. инерц. крут. коле" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -31,9 +22,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
-  <si>
-    <t>Лабораторная работа. Определение цикличесеской частоты колебания тела на пружине</t>
-  </si>
   <si>
     <t>Автор: Мосиеенко Павел</t>
   </si>
@@ -227,7 +215,10 @@
     <t xml:space="preserve">Относительная погрешность </t>
   </si>
   <si>
-    <t>Работа № 7. Определение момента инерции некоторых тел методом крутильных колебаний</t>
+    <t>Задание № 7. Определение момента инерции некоторых тел методом крутильных колебаний</t>
+  </si>
+  <si>
+    <t>Лабораторная работа № 2. Задание № 6. Определение цикличесеской частоты колебания тела на пружине</t>
   </si>
 </sst>
 </file>
@@ -329,11 +320,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -349,9 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,9 +346,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,167 +370,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ЛР. Определ. циклич"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ЛР. Определ. циклич. частоты ко"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="F4" t="str">
-            <v>k, Н/м</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="F5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>0.02</v>
-          </cell>
-          <cell r="D6">
-            <v>6.9999999999999932E-3</v>
-          </cell>
-          <cell r="F6">
-            <v>28.000000000000028</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>0.04</v>
-          </cell>
-          <cell r="D7">
-            <v>1.2999999999999999E-2</v>
-          </cell>
-          <cell r="F7">
-            <v>32.666666666666593</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>0.06</v>
-          </cell>
-          <cell r="D8">
-            <v>2.1999999999999999E-2</v>
-          </cell>
-          <cell r="F8">
-            <v>21.777777777777814</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>0.08</v>
-          </cell>
-          <cell r="D9">
-            <v>0.03</v>
-          </cell>
-          <cell r="F9">
-            <v>24.499999999999979</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>0.1</v>
-          </cell>
-          <cell r="D10">
-            <v>3.7999999999999999E-2</v>
-          </cell>
-          <cell r="F10">
-            <v>24.499999999999979</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>0.12</v>
-          </cell>
-          <cell r="D11">
-            <v>4.4999999999999998E-2</v>
-          </cell>
-          <cell r="F11">
-            <v>28.000000000000028</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>0.1</v>
-          </cell>
-          <cell r="D12">
-            <v>5.2999999999999999E-2</v>
-          </cell>
-          <cell r="F12">
-            <v>24.499999999999979</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>0.08</v>
-          </cell>
-          <cell r="D13">
-            <v>5.8999999999999997E-2</v>
-          </cell>
-          <cell r="F13">
-            <v>32.666666666666785</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>0.06</v>
-          </cell>
-          <cell r="D14">
-            <v>6.8000000000000005E-2</v>
-          </cell>
-          <cell r="F14">
-            <v>21.777777777777725</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>0.04</v>
-          </cell>
-          <cell r="D15">
-            <v>7.3999999999999996E-2</v>
-          </cell>
-          <cell r="F15">
-            <v>32.666666666666785</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>0.02</v>
-          </cell>
-          <cell r="D16">
-            <v>8.3000000000000004E-2</v>
-          </cell>
-          <cell r="F16">
-            <v>21.777777777777725</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,331 +637,332 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="6" style="8" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="6" style="8" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="6" style="8" customWidth="1"/>
-    <col min="16" max="18" width="8.88671875" style="8"/>
-    <col min="19" max="19" width="31.109375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="29.6640625" style="8" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="7.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6" style="6" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6" style="6" customWidth="1"/>
+    <col min="16" max="18" width="8.85546875" style="6"/>
+    <col min="19" max="19" width="31.140625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="29.7109375" style="6" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="4" spans="2:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="4" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="M4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="3"/>
+      <c r="S4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>3.4</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>0.112</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>0.46</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4">
+      <c r="H5" s="1"/>
+      <c r="I5" s="3">
         <v>23.8</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f>I5/20*2</f>
         <v>2.38</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3">
         <f>(L5*9.8*E5*C5*POWER(J5, 2))/(4*POWER(PI(), 2)*G5)</f>
         <v>0.22814735199599159</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="Q5" s="3"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>0.46</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4">
+      <c r="H6" s="1"/>
+      <c r="I6" s="3">
         <v>14.48</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>0.46</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4">
+      <c r="H7" s="1"/>
+      <c r="I7" s="3">
         <v>12.5</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>0.46</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4">
+      <c r="H8" s="1"/>
+      <c r="I8" s="3">
         <v>15.71</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>0.46</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4">
+      <c r="H9" s="1"/>
+      <c r="I9" s="3">
         <v>19.07</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="2:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
         <f>AVERAGE(C5:C9)</f>
         <v>3.4</v>
       </c>
-      <c r="D10" s="4" t="e">
+      <c r="D10" s="3" t="e">
         <f t="shared" ref="D10:P10" si="0">AVERAGE(D5:D9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>0.112</v>
       </c>
-      <c r="F10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0.46000000000000008</v>
       </c>
-      <c r="H10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>17.112000000000002</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f t="shared" si="0"/>
         <v>2.38</v>
       </c>
-      <c r="K10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="K10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="0"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="M10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="M10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="3">
         <f t="shared" si="0"/>
         <v>0.22814735199599159</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1139,321 +973,321 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65343266-D359-41C9-AF6E-2FC7B6522562}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="7.88671875" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" customWidth="1"/>
-    <col min="19" max="19" width="24.5546875" customWidth="1"/>
-    <col min="20" max="20" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="24.5703125" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="4" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="4" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="M4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="2">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>3.4</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>0.112</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>0.46</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4">
+      <c r="H5" s="1"/>
+      <c r="I5" s="3">
         <v>23.8</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f>I5/20*2</f>
         <v>2.38</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3">
         <f>(L5*9.8*E5*C5*POWER(J5, 2))/(4*POWER(PI(), 2)*G5)</f>
         <v>0.22814735199599159</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>0.46</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4">
+      <c r="H6" s="1"/>
+      <c r="I6" s="3">
         <v>14.48</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="2">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>0.46</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4">
+      <c r="H7" s="1"/>
+      <c r="I7" s="3">
         <v>12.5</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="2">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>0.46</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4">
+      <c r="H8" s="1"/>
+      <c r="I8" s="3">
         <v>15.71</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>0.46</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4">
+      <c r="H9" s="1"/>
+      <c r="I9" s="3">
         <v>19.07</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
         <f>AVERAGE(C5:C9)</f>
         <v>3.4</v>
       </c>
-      <c r="D10" s="4" t="e">
+      <c r="D10" s="3" t="e">
         <f t="shared" ref="D10:P10" si="0">AVERAGE(D5:D9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>0.112</v>
       </c>
-      <c r="F10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0.46000000000000008</v>
       </c>
-      <c r="H10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>17.112000000000002</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f t="shared" si="0"/>
         <v>2.38</v>
       </c>
-      <c r="K10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="K10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="0"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="M10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="M10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="3">
         <f t="shared" si="0"/>
         <v>0.22814735199599159</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
